--- a/6.実装チュートリアル.xlsx
+++ b/6.実装チュートリアル.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\たかゆき\フリーランス\00.共通\スマホアプリ\Flutter\02_実装チュートリアル\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA590747-1646-4292-A27D-459496DF8492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45872AFB-57D6-4BF1-8813-053527A286AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2040" yWindow="1755" windowWidth="19860" windowHeight="13995" xr2:uid="{0BE16678-DAB6-4CE0-8A3B-53552A668965}"/>
+    <workbookView xWindow="13230" yWindow="1005" windowWidth="16305" windowHeight="12780" xr2:uid="{0BE16678-DAB6-4CE0-8A3B-53552A668965}"/>
   </bookViews>
   <sheets>
     <sheet name="実装チュートリアル(初級編)" sheetId="5" r:id="rId1"/>
+    <sheet name="実績" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'実装チュートリアル(初級編)'!$A$1:$E$17</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">実績!$A$1:$E$17</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'実装チュートリアル(初級編)'!$A$1:$F$17</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>Flutter実装チュートリアル</t>
     <rPh sb="7" eb="9">
@@ -94,6 +96,79 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>注意点</t>
+    <rPh sb="0" eb="3">
+      <t>チュウイテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①RaisedButton→ElevatedButton、FlatButton→TextButton、OutlineButton→OutlinedButtonに変更されています。
+②画面遷移2つ目のルート登録による方法は可能ですが、公式では非推奨となっています。</t>
+    <rPh sb="80" eb="82">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="91" eb="93">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="93" eb="95">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="97" eb="98">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="102" eb="104">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="107" eb="109">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="110" eb="112">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="116" eb="118">
+      <t>コウシキ</t>
+    </rPh>
+    <rPh sb="120" eb="123">
+      <t>ヒスイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①StatelessWidgetなので、画面更新の為、textに値を入れる際、以下のコードにする必要があります。
+setState(() {
+  text = result;
+});</t>
+    <rPh sb="20" eb="22">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>タメ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下記リストの再生リストリンク</t>
+  </si>
 </sst>
 </file>
 
@@ -102,7 +177,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,8 +224,31 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="20"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="20"/>
+      <color theme="10"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="20"/>
+      <color theme="10"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -163,8 +261,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -252,6 +356,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -261,7 +380,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -289,9 +408,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -308,6 +424,51 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -635,10 +796,195 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
+  <dimension ref="B1:E24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="33" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="89.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="89.5" style="15" customWidth="1"/>
+    <col min="5" max="5" width="10.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" ht="33.75" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B2" s="2"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B3" s="5"/>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B4" s="5"/>
+      <c r="C4" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="27"/>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B5" s="5"/>
+      <c r="C5" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="27"/>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B6" s="5"/>
+      <c r="C6" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B7" s="5"/>
+      <c r="C7" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B8" s="5"/>
+      <c r="C8" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="28"/>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="2:5" ht="142.5" x14ac:dyDescent="0.4">
+      <c r="B9" s="5"/>
+      <c r="C9" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="2:5" ht="142.5" x14ac:dyDescent="0.4">
+      <c r="B10" s="5"/>
+      <c r="C10" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B11" s="5"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B12" s="5"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B13" s="5"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B14" s="5"/>
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="2:5" ht="33.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="8"/>
+      <c r="C15" s="17">
+        <v>45300</v>
+      </c>
+      <c r="D15" s="17"/>
+      <c r="E15" s="9"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="10"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="11"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="12"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="12"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="12"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="12"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="C9" r:id="rId1" display="2.ボタンを押して画面遷移する方法(1)" xr:uid="{5D19B172-17CF-47B1-91EC-39723B232A89}"/>
+    <hyperlink ref="C10" r:id="rId2" xr:uid="{7D78726A-2ACB-4877-84F9-BB03903E21E4}"/>
+    <hyperlink ref="C8" r:id="rId3" xr:uid="{27163F6F-4B60-4C4A-9DE0-0C9636A5383F}"/>
+    <hyperlink ref="C6" r:id="rId4" xr:uid="{9B7CAFE0-A61E-4B88-BF92-1EF84537B68C}"/>
+  </hyperlinks>
+  <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.55118110236220474" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="39" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId5"/>
+  <headerFooter>
+    <oddHeader xml:space="preserve">&amp;R©TK-free  </oddHeader>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF88F8E0-DC87-4B95-9E2B-C32508F58591}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="B1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="33" x14ac:dyDescent="0.4"/>
@@ -680,42 +1026,57 @@
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B7" s="5"/>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="13" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="6"/>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B8" s="5"/>
-      <c r="C8" s="15" t="s">
-        <v>5</v>
+      <c r="C8" s="14" t="str">
+        <f>'実装チュートリアル(初級編)'!C8</f>
+        <v>1.基本的なWidgetの使い方</v>
       </c>
       <c r="D8" s="6"/>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B9" s="5"/>
-      <c r="C9" s="15" t="s">
-        <v>3</v>
+      <c r="C9" s="14" t="str">
+        <f>'実装チュートリアル(初級編)'!C9</f>
+        <v>2.ボタンを押して画面遷移する方法</v>
       </c>
       <c r="D9" s="6"/>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B10" s="5"/>
-      <c r="C10" s="15" t="s">
-        <v>4</v>
+      <c r="C10" s="14" t="str">
+        <f>'実装チュートリアル(初級編)'!C10</f>
+        <v>3.次の画面に値を渡したり、前の画面に値を戻す方法</v>
       </c>
       <c r="D10" s="6"/>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B11" s="5"/>
+      <c r="C11" s="14">
+        <f>'実装チュートリアル(初級編)'!C11</f>
+        <v>0</v>
+      </c>
       <c r="D11" s="6"/>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B12" s="5"/>
+      <c r="C12" s="14">
+        <f>'実装チュートリアル(初級編)'!C12</f>
+        <v>0</v>
+      </c>
       <c r="D12" s="6"/>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B13" s="5"/>
+      <c r="C13" s="14">
+        <f>'実装チュートリアル(初級編)'!C13</f>
+        <v>0</v>
+      </c>
       <c r="D13" s="6"/>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.4">
@@ -724,55 +1085,50 @@
     </row>
     <row r="15" spans="2:4" ht="33.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B15" s="8"/>
-      <c r="C15" s="9">
-        <v>45261</v>
-      </c>
-      <c r="D15" s="10"/>
+      <c r="C15" s="17">
+        <v>45300</v>
+      </c>
+      <c r="D15" s="9"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="C9" r:id="rId1" display="2.ボタンを押して画面遷移する方法(1)" xr:uid="{5D19B172-17CF-47B1-91EC-39723B232A89}"/>
-    <hyperlink ref="C10" r:id="rId2" xr:uid="{7D78726A-2ACB-4877-84F9-BB03903E21E4}"/>
-    <hyperlink ref="C8" r:id="rId3" xr:uid="{27163F6F-4B60-4C4A-9DE0-0C9636A5383F}"/>
-  </hyperlinks>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.55118110236220474" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="67" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId4"/>
+  <pageSetup paperSize="9" scale="67" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
     <oddHeader xml:space="preserve">&amp;R©TK-free  </oddHeader>
   </headerFooter>

--- a/6.実装チュートリアル.xlsx
+++ b/6.実装チュートリアル.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\たかゆき\フリーランス\00.共通\スマホアプリ\Flutter\02_実装チュートリアル\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45872AFB-57D6-4BF1-8813-053527A286AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69D5D50D-4B42-42C4-BB91-6A4361E83D4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13230" yWindow="1005" windowWidth="16305" windowHeight="12780" xr2:uid="{0BE16678-DAB6-4CE0-8A3B-53552A668965}"/>
+    <workbookView xWindow="840" yWindow="750" windowWidth="16815" windowHeight="12780" xr2:uid="{0BE16678-DAB6-4CE0-8A3B-53552A668965}"/>
   </bookViews>
   <sheets>
     <sheet name="実装チュートリアル(初級編)" sheetId="5" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>Flutter実装チュートリアル</t>
     <rPh sb="7" eb="9">
@@ -168,6 +168,40 @@
   </si>
   <si>
     <t>下記リストの再生リストリンク</t>
+  </si>
+  <si>
+    <t>4.画像やアイコンを配置する方法</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>とくになし。
+※変更が反映されない場合、デバッグを停止→開始すると反映されるかもしれない。</t>
+    <rPh sb="8" eb="10">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ハンエイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>テイシ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ハンエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>済み</t>
+    <rPh sb="0" eb="1">
+      <t>ス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -459,17 +493,17 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -798,8 +832,8 @@
   </sheetPr>
   <dimension ref="B1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="33" x14ac:dyDescent="0.4"/>
@@ -825,23 +859,23 @@
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B4" s="5"/>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="27"/>
+      <c r="D4" s="29"/>
       <c r="E4" s="6"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B5" s="5"/>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="27"/>
+      <c r="D5" s="29"/>
       <c r="E5" s="6"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B6" s="5"/>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="27" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="6"/>
@@ -861,7 +895,7 @@
       <c r="C8" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="28"/>
+      <c r="D8" s="26"/>
       <c r="E8" s="6"/>
     </row>
     <row r="9" spans="2:5" ht="142.5" x14ac:dyDescent="0.4">
@@ -884,22 +918,26 @@
       </c>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:5" ht="85.5" x14ac:dyDescent="0.4">
       <c r="B11" s="5"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="28"/>
+      <c r="C11" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>11</v>
+      </c>
       <c r="E11" s="6"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B12" s="5"/>
       <c r="C12" s="24"/>
-      <c r="D12" s="28"/>
+      <c r="D12" s="21"/>
       <c r="E12" s="6"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B13" s="5"/>
       <c r="C13" s="24"/>
-      <c r="D13" s="28"/>
+      <c r="D13" s="21"/>
       <c r="E13" s="6"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.4">
@@ -967,9 +1005,10 @@
     <hyperlink ref="C10" r:id="rId2" xr:uid="{7D78726A-2ACB-4877-84F9-BB03903E21E4}"/>
     <hyperlink ref="C8" r:id="rId3" xr:uid="{27163F6F-4B60-4C4A-9DE0-0C9636A5383F}"/>
     <hyperlink ref="C6" r:id="rId4" xr:uid="{9B7CAFE0-A61E-4B88-BF92-1EF84537B68C}"/>
+    <hyperlink ref="C11" r:id="rId5" xr:uid="{A5CA831E-3276-4BF3-9709-FF0BDEE739EB}"/>
   </hyperlinks>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.55118110236220474" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="39" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId5"/>
+  <pageSetup paperSize="9" scale="39" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId6"/>
   <headerFooter>
     <oddHeader xml:space="preserve">&amp;R©TK-free  </oddHeader>
   </headerFooter>
@@ -984,7 +1023,7 @@
   <dimension ref="B1:D24"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:D10"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="33" x14ac:dyDescent="0.4"/>
@@ -1037,7 +1076,9 @@
         <f>'実装チュートリアル(初級編)'!C8</f>
         <v>1.基本的なWidgetの使い方</v>
       </c>
-      <c r="D8" s="6"/>
+      <c r="D8" s="6" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B9" s="5"/>
@@ -1045,7 +1086,9 @@
         <f>'実装チュートリアル(初級編)'!C9</f>
         <v>2.ボタンを押して画面遷移する方法</v>
       </c>
-      <c r="D9" s="6"/>
+      <c r="D9" s="6" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B10" s="5"/>
@@ -1053,15 +1096,19 @@
         <f>'実装チュートリアル(初級編)'!C10</f>
         <v>3.次の画面に値を渡したり、前の画面に値を戻す方法</v>
       </c>
-      <c r="D10" s="6"/>
+      <c r="D10" s="6" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B11" s="5"/>
-      <c r="C11" s="14">
+      <c r="C11" s="14" t="str">
         <f>'実装チュートリアル(初級編)'!C11</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="6"/>
+        <v>4.画像やアイコンを配置する方法</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B12" s="5"/>

--- a/6.実装チュートリアル.xlsx
+++ b/6.実装チュートリアル.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\たかゆき\フリーランス\00.共通\スマホアプリ\Flutter\02_実装チュートリアル\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69D5D50D-4B42-42C4-BB91-6A4361E83D4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B5C702A-40B0-4F1F-B7C4-8C6C3371F6A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="750" windowWidth="16815" windowHeight="12780" xr2:uid="{0BE16678-DAB6-4CE0-8A3B-53552A668965}"/>
+    <workbookView xWindow="4050" yWindow="1740" windowWidth="16815" windowHeight="13995" xr2:uid="{0BE16678-DAB6-4CE0-8A3B-53552A668965}"/>
   </bookViews>
   <sheets>
     <sheet name="実装チュートリアル(初級編)" sheetId="5" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>Flutter実装チュートリアル</t>
     <rPh sb="7" eb="9">
@@ -200,6 +200,27 @@
     <t>済み</t>
     <rPh sb="0" eb="1">
       <t>ス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5.TextStyleを変更して文字の装飾をする方法</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下記のコードは最後に「!」が必要
+foreground: Paint()
+  ..style = PaintingStyle.stroke
+  ..strokeWidth = 3
+  ..color = Colors.blue[700]!,</t>
+    <rPh sb="0" eb="2">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サイゴ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒツヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -832,7 +853,7 @@
   </sheetPr>
   <dimension ref="B1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A8" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -928,10 +949,14 @@
       </c>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:5" ht="142.5" x14ac:dyDescent="0.4">
       <c r="B12" s="5"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="21"/>
+      <c r="C12" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>14</v>
+      </c>
       <c r="E12" s="6"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.4">
@@ -1006,9 +1031,11 @@
     <hyperlink ref="C8" r:id="rId3" xr:uid="{27163F6F-4B60-4C4A-9DE0-0C9636A5383F}"/>
     <hyperlink ref="C6" r:id="rId4" xr:uid="{9B7CAFE0-A61E-4B88-BF92-1EF84537B68C}"/>
     <hyperlink ref="C11" r:id="rId5" xr:uid="{A5CA831E-3276-4BF3-9709-FF0BDEE739EB}"/>
+    <hyperlink ref="C12" r:id="rId6" xr:uid="{411F9F7B-13DC-496D-BF39-1B73355DEA8B}"/>
+    <hyperlink ref="D12" r:id="rId7" display="https://api.flutter.dev/flutter/painting/TextStyle-class.html" xr:uid="{1BD9641D-621C-475D-B75A-FA8E8AA4F3C7}"/>
   </hyperlinks>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.55118110236220474" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="39" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId6"/>
+  <pageSetup paperSize="9" scale="39" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId8"/>
   <headerFooter>
     <oddHeader xml:space="preserve">&amp;R©TK-free  </oddHeader>
   </headerFooter>
@@ -1112,9 +1139,9 @@
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B12" s="5"/>
-      <c r="C12" s="14">
+      <c r="C12" s="14" t="str">
         <f>'実装チュートリアル(初級編)'!C12</f>
-        <v>0</v>
+        <v>5.TextStyleを変更して文字の装飾をする方法</v>
       </c>
       <c r="D12" s="6"/>
     </row>

--- a/6.実装チュートリアル.xlsx
+++ b/6.実装チュートリアル.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\たかゆき\フリーランス\00.共通\スマホアプリ\Flutter\02_実装チュートリアル\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B5C702A-40B0-4F1F-B7C4-8C6C3371F6A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAED048E-8CFA-443F-AD95-8B722E8820CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4050" yWindow="1740" windowWidth="16815" windowHeight="13995" xr2:uid="{0BE16678-DAB6-4CE0-8A3B-53552A668965}"/>
+    <workbookView xWindow="2115" yWindow="1305" windowWidth="16815" windowHeight="13995" xr2:uid="{0BE16678-DAB6-4CE0-8A3B-53552A668965}"/>
   </bookViews>
   <sheets>
     <sheet name="実装チュートリアル(初級編)" sheetId="5" r:id="rId1"/>
     <sheet name="実績" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">実績!$A$1:$E$17</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'実装チュートリアル(初級編)'!$A$1:$F$17</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">実績!$A$1:$E$20</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'実装チュートリアル(初級編)'!$A$1:$F$20</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t>Flutter実装チュートリアル</t>
     <rPh sb="7" eb="9">
@@ -222,6 +222,14 @@
     <rPh sb="14" eb="16">
       <t>ヒツヨウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6.TextFieldを使って入力フォームを作る方法</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>とくになし。</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -851,10 +859,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:E24"/>
+  <dimension ref="B1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A8" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="33" x14ac:dyDescent="0.4"/>
@@ -961,51 +969,55 @@
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B13" s="5"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="21"/>
+      <c r="C13" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="E13" s="6"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B14" s="5"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="21"/>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" spans="2:5" ht="33.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="8"/>
-      <c r="C15" s="17">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B15" s="5"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B16" s="5"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B17" s="5"/>
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" spans="2:5" ht="33.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="8"/>
+      <c r="C18" s="17">
         <v>45300</v>
       </c>
-      <c r="D15" s="17"/>
-      <c r="E15" s="9"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="10"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="11"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="9"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="12"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="10"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="12"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="12"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="11"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B23" s="12"/>
@@ -1018,6 +1030,24 @@
       <c r="C24" s="12"/>
       <c r="D24" s="20"/>
       <c r="E24" s="12"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="12"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="12"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1033,9 +1063,10 @@
     <hyperlink ref="C11" r:id="rId5" xr:uid="{A5CA831E-3276-4BF3-9709-FF0BDEE739EB}"/>
     <hyperlink ref="C12" r:id="rId6" xr:uid="{411F9F7B-13DC-496D-BF39-1B73355DEA8B}"/>
     <hyperlink ref="D12" r:id="rId7" display="https://api.flutter.dev/flutter/painting/TextStyle-class.html" xr:uid="{1BD9641D-621C-475D-B75A-FA8E8AA4F3C7}"/>
+    <hyperlink ref="C13" r:id="rId8" xr:uid="{059C1735-4E40-4D4D-9A57-E2E8B6051E11}"/>
   </hyperlinks>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.55118110236220474" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="39" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId8"/>
+  <pageSetup paperSize="9" scale="39" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId9"/>
   <headerFooter>
     <oddHeader xml:space="preserve">&amp;R©TK-free  </oddHeader>
   </headerFooter>
@@ -1047,10 +1078,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:D24"/>
+  <dimension ref="B1:D27"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="33" x14ac:dyDescent="0.4"/>
@@ -1143,51 +1174,64 @@
         <f>'実装チュートリアル(初級編)'!C12</f>
         <v>5.TextStyleを変更して文字の装飾をする方法</v>
       </c>
-      <c r="D12" s="6"/>
+      <c r="D12" s="6" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B13" s="5"/>
-      <c r="C13" s="14">
+      <c r="C13" s="14" t="str">
         <f>'実装チュートリアル(初級編)'!C13</f>
-        <v>0</v>
-      </c>
-      <c r="D13" s="6"/>
+        <v>6.TextFieldを使って入力フォームを作る方法</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B14" s="5"/>
+      <c r="C14" s="14">
+        <f>'実装チュートリアル(初級編)'!C14</f>
+        <v>0</v>
+      </c>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="2:4" ht="33.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="8"/>
-      <c r="C15" s="17">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B15" s="5"/>
+      <c r="C15" s="14">
+        <f>'実装チュートリアル(初級編)'!C15</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B16" s="5"/>
+      <c r="C16" s="14">
+        <f>'実装チュートリアル(初級編)'!C16</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B17" s="5"/>
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" spans="2:4" ht="33.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="8"/>
+      <c r="C18" s="17">
         <v>45300</v>
       </c>
-      <c r="D15" s="9"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
+      <c r="D18" s="9"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B23" s="12"/>
@@ -1198,6 +1242,21 @@
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/6.実装チュートリアル.xlsx
+++ b/6.実装チュートリアル.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\たかゆき\フリーランス\00.共通\スマホアプリ\Flutter\02_実装チュートリアル\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAED048E-8CFA-443F-AD95-8B722E8820CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD37BEEB-DDD7-41E6-8BE4-DE24BE74E138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2115" yWindow="1305" windowWidth="16815" windowHeight="13995" xr2:uid="{0BE16678-DAB6-4CE0-8A3B-53552A668965}"/>
+    <workbookView xWindow="3870" yWindow="765" windowWidth="22560" windowHeight="13995" xr2:uid="{0BE16678-DAB6-4CE0-8A3B-53552A668965}"/>
   </bookViews>
   <sheets>
     <sheet name="実装チュートリアル(初級編)" sheetId="5" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
   <si>
     <t>Flutter実装チュートリアル</t>
     <rPh sb="7" eb="9">
@@ -174,29 +174,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>とくになし。
-※変更が反映されない場合、デバッグを停止→開始すると反映されるかもしれない。</t>
-    <rPh sb="8" eb="10">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ハンエイ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>テイシ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>カイシ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ハンエイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>済み</t>
     <rPh sb="0" eb="1">
       <t>ス</t>
@@ -208,7 +185,38 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>下記のコードは最後に「!」が必要
+    <t>6.TextFieldを使って入力フォームを作る方法</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>とくになし。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>とくになし。
+※変更が反映されない場合、デバッグを停止→開始すると反映されるかもしれません。</t>
+    <rPh sb="8" eb="10">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ハンエイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>テイシ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ハンエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下記のコードは最後に「!」が必要です
 foreground: Paint()
   ..style = PaintingStyle.stroke
   ..strokeWidth = 3
@@ -225,11 +233,42 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>6.TextFieldを使って入力フォームを作る方法</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>とくになし。</t>
+    <t>①7:36付近：最新の公式と異なっています。動画を参考にしてください。
+　※「final items = List&lt;String&gt;.generate(10000, (i) =&gt; 'Item $i');」</t>
+    <rPh sb="5" eb="7">
+      <t>フキン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サイシン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>コウシキ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ドウガ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>サンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7.リストを作る方法（ListView, GridView）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8.今までの復習！YouTubeアプリっぽいやつ作ろう！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">リストのマージンが上手くできない(´・ω・`)
+</t>
+    <rPh sb="9" eb="11">
+      <t>ウマ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -443,7 +482,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -533,6 +572,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -557,6 +599,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>508000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2484438</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>5032375</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F790F7EE-8AA8-074C-7531-6844660006F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8334375" y="12192000"/>
+          <a:ext cx="2341563" cy="4524375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -861,8 +952,8 @@
   </sheetPr>
   <dimension ref="B1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A8" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="33" x14ac:dyDescent="0.4"/>
@@ -953,40 +1044,48 @@
         <v>10</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E11" s="6"/>
     </row>
     <row r="12" spans="2:5" ht="142.5" x14ac:dyDescent="0.4">
       <c r="B12" s="5"/>
       <c r="C12" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E12" s="6"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B13" s="5"/>
       <c r="C13" s="23" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:5" ht="114" x14ac:dyDescent="0.4">
       <c r="B14" s="5"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="21"/>
+      <c r="C14" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>17</v>
+      </c>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:5" ht="409.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="5"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="21"/>
+      <c r="C15" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>20</v>
+      </c>
       <c r="E15" s="6"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.4">
@@ -1064,12 +1163,15 @@
     <hyperlink ref="C12" r:id="rId6" xr:uid="{411F9F7B-13DC-496D-BF39-1B73355DEA8B}"/>
     <hyperlink ref="D12" r:id="rId7" display="https://api.flutter.dev/flutter/painting/TextStyle-class.html" xr:uid="{1BD9641D-621C-475D-B75A-FA8E8AA4F3C7}"/>
     <hyperlink ref="C13" r:id="rId8" xr:uid="{059C1735-4E40-4D4D-9A57-E2E8B6051E11}"/>
+    <hyperlink ref="C14" r:id="rId9" display="リストを作る方法（ListView, GridView）" xr:uid="{7625694C-0544-4C18-A154-375870BEA987}"/>
+    <hyperlink ref="C15" r:id="rId10" xr:uid="{D9677273-4504-4D3B-AAEC-50521B082C9F}"/>
   </hyperlinks>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.55118110236220474" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="39" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId9"/>
+  <pageSetup paperSize="9" scale="39" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId11"/>
   <headerFooter>
     <oddHeader xml:space="preserve">&amp;R©TK-free  </oddHeader>
   </headerFooter>
+  <drawing r:id="rId12"/>
 </worksheet>
 </file>
 
@@ -1081,7 +1183,7 @@
   <dimension ref="B1:D27"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="33" x14ac:dyDescent="0.4"/>
@@ -1135,7 +1237,7 @@
         <v>1.基本的なWidgetの使い方</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.4">
@@ -1145,7 +1247,7 @@
         <v>2.ボタンを押して画面遷移する方法</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.4">
@@ -1155,7 +1257,7 @@
         <v>3.次の画面に値を渡したり、前の画面に値を戻す方法</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.4">
@@ -1165,7 +1267,7 @@
         <v>4.画像やアイコンを配置する方法</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.4">
@@ -1175,7 +1277,7 @@
         <v>5.TextStyleを変更して文字の装飾をする方法</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.4">
@@ -1185,24 +1287,28 @@
         <v>6.TextFieldを使って入力フォームを作る方法</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B14" s="5"/>
-      <c r="C14" s="14">
+      <c r="C14" s="14" t="str">
         <f>'実装チュートリアル(初級編)'!C14</f>
-        <v>0</v>
-      </c>
-      <c r="D14" s="6"/>
+        <v>7.リストを作る方法（ListView, GridView）</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B15" s="5"/>
-      <c r="C15" s="14">
+      <c r="C15" s="14" t="str">
         <f>'実装チュートリアル(初級編)'!C15</f>
-        <v>0</v>
-      </c>
-      <c r="D15" s="6"/>
+        <v>8.今までの復習！YouTubeアプリっぽいやつ作ろう！</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B16" s="5"/>
